--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" xr2:uid="{1D11F908-ABC8-4DEE-AB1E-893CB6BE9AC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" activeTab="1" xr2:uid="{1D11F908-ABC8-4DEE-AB1E-893CB6BE9AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
-    <sheet name="Timeline" sheetId="3" r:id="rId2"/>
-    <sheet name="Hours worked" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="3" r:id="rId3"/>
+    <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Important</t>
   </si>
@@ -122,6 +123,51 @@
   </si>
   <si>
     <t>Week beginning</t>
+  </si>
+  <si>
+    <t>Investor/owner</t>
+  </si>
+  <si>
+    <t>Max LVR</t>
+  </si>
+  <si>
+    <t>Loan size</t>
+  </si>
+  <si>
+    <t>Fixed or variable interest</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Redraw</t>
+  </si>
+  <si>
+    <t>Extra repay</t>
+  </si>
+  <si>
+    <t>Interest only</t>
+  </si>
+  <si>
+    <t>Full doc/low doc/no doc</t>
+  </si>
+  <si>
+    <t>Product description</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Setup costs</t>
+  </si>
+  <si>
+    <t>Ongoing costs</t>
+  </si>
+  <si>
+    <t>Comparison rate</t>
   </si>
 </sst>
 </file>
@@ -499,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1545BE-94CA-40A7-BA14-9E657E7B5E7A}">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +733,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED46B84-274A-4236-A99E-8B68E8F37C07}">
+  <dimension ref="B2:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17909C1-BFD5-4F2D-A064-70415DCFE71E}">
   <dimension ref="B1:Y7"/>
   <sheetViews>
@@ -833,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48C1C67-E11D-4635-B777-1DF6EBF2DBB7}">
   <dimension ref="B2:D2"/>
   <sheetViews>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\Documents\GitHub\homeloans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/homeloans/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" activeTab="1" xr2:uid="{1D11F908-ABC8-4DEE-AB1E-893CB6BE9AC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
     <sheet name="Timeline" sheetId="3" r:id="rId3"/>
     <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Important</t>
   </si>
@@ -168,12 +174,24 @@
   </si>
   <si>
     <t>Comparison rate</t>
+  </si>
+  <si>
+    <t>29th Dec</t>
+  </si>
+  <si>
+    <t>Set up MySQL Workbench</t>
+  </si>
+  <si>
+    <t>PHP code to connect to RDS through EC2 and create/edit tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up RDS, EC2, Elastic Beanstalk and Security Policies </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +228,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,20 +560,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1545BE-94CA-40A7-BA14-9E657E7B5E7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -567,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -575,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -599,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -607,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -615,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -623,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -631,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -639,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -647,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -655,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -663,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -671,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -679,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -695,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -703,7 +721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -711,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
@@ -719,7 +737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -733,19 +751,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED46B84-274A-4236-A99E-8B68E8F37C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -801,24 +819,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17909C1-BFD5-4F2D-A064-70415DCFE71E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -914,28 +932,28 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -948,19 +966,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48C1C67-E11D-4635-B777-1DF6EBF2DBB7}">
-  <dimension ref="B2:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
@@ -969,6 +987,27 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/homeloans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\Documents\GitHub\homeloans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,23 @@
     <sheet name="Timeline" sheetId="3" r:id="rId3"/>
     <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Important</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Max LVR</t>
   </si>
   <si>
-    <t>Loan size</t>
-  </si>
-  <si>
     <t>Fixed or variable interest</t>
   </si>
   <si>
@@ -186,14 +183,49 @@
   </si>
   <si>
     <t xml:space="preserve">Set up RDS, EC2, Elastic Beanstalk and Security Policies </t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Loan size min</t>
+  </si>
+  <si>
+    <t>Loan size max</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Full doc</t>
+  </si>
+  <si>
+    <t>Standard Home Loan</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>Advertised rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,6 +279,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,20 +596,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -585,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -593,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -601,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -609,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -625,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -633,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -641,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -649,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -657,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -665,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -673,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -681,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -689,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -713,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -721,7 +757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -729,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
@@ -737,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -751,92 +787,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
+      <c r="R2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>500000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="8">
+        <v>500</v>
+      </c>
+      <c r="P3" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R3" s="9">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -932,28 +1037,28 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -966,19 +1071,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
@@ -989,25 +1094,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Important</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Advertised rate</t>
+  </si>
+  <si>
+    <t>Nullable</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:R3"/>
+  <dimension ref="B2:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,6 +920,17 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\Documents\GitHub\homeloans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/homeloans/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,23 @@
     <sheet name="Timeline" sheetId="3" r:id="rId3"/>
     <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Important</t>
   </si>
@@ -210,12 +210,21 @@
   </si>
   <si>
     <t>Nullable</t>
+  </si>
+  <si>
+    <t>Set up Ajax service to communicate between frontend and backend</t>
+  </si>
+  <si>
+    <t>Set up RDS dummy database, created sql script</t>
+  </si>
+  <si>
+    <t>Set up Tables and Functional Dependencies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -599,20 +608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -624,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -632,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -640,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -648,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -656,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -664,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -672,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -688,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -696,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -704,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -712,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -720,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -728,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -736,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -744,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -752,7 +761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -760,7 +769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -768,7 +777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
@@ -776,7 +785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -790,34 +799,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
@@ -870,7 +879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -920,7 +929,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>58</v>
       </c>
@@ -938,24 +947,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1051,28 +1060,28 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1085,19 +1094,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1119,14 +1128,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Important</t>
   </si>
@@ -210,6 +210,57 @@
   </si>
   <si>
     <t>Nullable</t>
+  </si>
+  <si>
+    <t>Refinance/buy</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Affected columns</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LVR, loan size min, loan size max</t>
+  </si>
+  <si>
+    <t>Purchase price/property worth</t>
+  </si>
+  <si>
+    <t>Deposit/Loan amount</t>
+  </si>
+  <si>
+    <t>Best situation</t>
+  </si>
+  <si>
+    <t>How will property be used</t>
+  </si>
+  <si>
+    <t>How would you like to repay</t>
+  </si>
+  <si>
+    <t>Current credit history</t>
+  </si>
+  <si>
+    <t>Employment type</t>
+  </si>
+  <si>
+    <t>Full doc/low doc</t>
+  </si>
+  <si>
+    <t>Employee or self-employ with at least two years of documents = full doc</t>
+  </si>
+  <si>
+    <t>2 years of Tax Returns</t>
+  </si>
+  <si>
+    <t>Important features</t>
+  </si>
+  <si>
+    <t>Offset, redraw, bank (major lender)</t>
   </si>
 </sst>
 </file>
@@ -271,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,6 +337,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,16 +845,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:R4"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -931,7 +985,98 @@
         <v>58</v>
       </c>
     </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Important</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Set up Tables and Functional Dependencies</t>
+  </si>
+  <si>
+    <t>30th Dec</t>
+  </si>
+  <si>
+    <t>4th Jan</t>
+  </si>
+  <si>
+    <t>Updated SQL script, added Auto increment</t>
+  </si>
+  <si>
+    <t>Integrated  search.html with Ajax and PDO sql backend code</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,6 +1151,9 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
       <c r="C6">
         <v>9</v>
       </c>
@@ -1154,6 +1169,22 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Important</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Offset, redraw, bank (major lender)</t>
+  </si>
+  <si>
+    <t>Max repayment</t>
+  </si>
+  <si>
+    <t>Logo URL</t>
   </si>
 </sst>
 </file>
@@ -845,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +877,7 @@
     <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
@@ -923,8 +929,14 @@
       <c r="R2" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -973,8 +985,11 @@
       <c r="R3" s="9">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>58</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -1009,13 +1024,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>68</v>
       </c>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\Documents\GitHub\homeloans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/homeloans/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,23 @@
     <sheet name="Timeline" sheetId="3" r:id="rId3"/>
     <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Important</t>
   </si>
@@ -263,16 +263,34 @@
     <t>Offset, redraw, bank (major lender)</t>
   </si>
   <si>
-    <t>Max repayment</t>
-  </si>
-  <si>
-    <t>Logo URL</t>
+    <t>30th Dec</t>
+  </si>
+  <si>
+    <t>3rd Jan</t>
+  </si>
+  <si>
+    <t>4th Jan</t>
+  </si>
+  <si>
+    <t>AJAX integration, SQL functional dependencies and scripts</t>
+  </si>
+  <si>
+    <t>Integration with Niraj's code, php PDO script for dynamic page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up dynamic values on the search page. </t>
+  </si>
+  <si>
+    <t>Dynamically linked product page to Search page using id</t>
+  </si>
+  <si>
+    <t>Update SQL query WHERE condition, add new SQL query for record count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -659,20 +677,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -684,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -692,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -724,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -732,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -740,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -748,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -756,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -764,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -772,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -780,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -796,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -804,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -812,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -820,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -828,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
@@ -836,7 +854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -850,34 +868,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
@@ -929,14 +947,8 @@
       <c r="R2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -985,11 +997,8 @@
       <c r="R3" s="9">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="S3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>58</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
@@ -1008,7 +1017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -1024,13 +1033,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -1073,13 +1082,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -1098,24 +1107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1211,28 +1220,28 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1245,19 +1254,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1279,14 +1288,57 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>Important</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Update SQL query WHERE condition, add new SQL query for record count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated product page query and content. </t>
+  </si>
+  <si>
+    <t>5th Jan</t>
   </si>
 </sst>
 </file>
@@ -871,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
@@ -1255,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,6 +1347,17 @@
         <v>83</v>
       </c>
     </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>Important</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>5th Jan</t>
+  </si>
+  <si>
+    <t>7th Jan</t>
+  </si>
+  <si>
+    <t>Changed Backend Architecture from ajax to URL variables to include dropdowns</t>
+  </si>
+  <si>
+    <t>Added php backend and modified query for "I want to buy a home"option</t>
+  </si>
+  <si>
+    <t>Updated javascript validation errors</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1358,6 +1370,27 @@
         <v>84</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1276,7 +1276,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>Important</t>
   </si>
@@ -303,6 +303,36 @@
   </si>
   <si>
     <t>Updated javascript validation errors</t>
+  </si>
+  <si>
+    <t>Dropdowns</t>
+  </si>
+  <si>
+    <t>bank description</t>
+  </si>
+  <si>
+    <t>remove features to keep only 3</t>
+  </si>
+  <si>
+    <t>9th Jan</t>
+  </si>
+  <si>
+    <t>Updated dynamic dropdowns for:</t>
+  </si>
+  <si>
+    <t>Refinance/buy new</t>
+  </si>
+  <si>
+    <t>owner/investor</t>
+  </si>
+  <si>
+    <t>principal&amp;interest/interest</t>
+  </si>
+  <si>
+    <t>offset/redraw</t>
+  </si>
+  <si>
+    <t>updated javascript function to show hide dropdowns</t>
   </si>
 </sst>
 </file>
@@ -312,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +356,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:R26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,6 +1150,21 @@
       </c>
       <c r="C20" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1273,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1391,6 +1444,42 @@
         <v>89</v>
       </c>
     </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -416,10 +416,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1085,7 @@
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1131,7 +1131,7 @@
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
@@ -1142,7 +1142,7 @@
       <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1456,27 +1456,27 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>Important</t>
   </si>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>updated javascript function to show hide dropdowns</t>
+  </si>
+  <si>
+    <t>10th Jan</t>
+  </si>
+  <si>
+    <t>Redesigned Database. Added User tables.</t>
+  </si>
+  <si>
+    <t>Created login page and validation script</t>
+  </si>
+  <si>
+    <t>Dynamic css changes(select/unselect) to features on product and search page</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,6 +429,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1085,7 +1098,7 @@
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1093,7 +1106,7 @@
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1131,7 +1144,7 @@
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
@@ -1142,7 +1155,7 @@
       <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1326,15 +1339,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -1460,24 +1473,45 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D17" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D18" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" s="10" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Important</t>
   </si>
@@ -345,6 +345,27 @@
   </si>
   <si>
     <t>Dynamic css changes(select/unselect) to features on product and search page</t>
+  </si>
+  <si>
+    <t>28th Jan</t>
+  </si>
+  <si>
+    <t>21st Jan</t>
+  </si>
+  <si>
+    <t>Changes to customer table. Updated primary keys to optimize database.</t>
+  </si>
+  <si>
+    <t>Query to compare customer table with loan table and fetch products</t>
+  </si>
+  <si>
+    <t>Query and php script to insert customer details in customer table</t>
+  </si>
+  <si>
+    <t>changes to serach.php page to fetch dynamic records using new query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update customer details script and php page</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1514,6 +1535,43 @@
         <v>103</v>
       </c>
     </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Important</t>
   </si>
@@ -366,6 +366,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Update customer details script and php page</t>
+  </si>
+  <si>
+    <t>29th Jan</t>
+  </si>
+  <si>
+    <t>Added extra repay constraint to query and script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended javascript for buying new home </t>
+  </si>
+  <si>
+    <t>date converstion code to store in sql (settlement date)</t>
+  </si>
+  <si>
+    <t>bug fixes in update customer details through dropdown menu</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1572,6 +1587,32 @@
         <v>110</v>
       </c>
     </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>Important</t>
   </si>
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t>bug fixes in update customer details through dropdown menu</t>
+  </si>
+  <si>
+    <t>4th Feb</t>
+  </si>
+  <si>
+    <t>5th Feb</t>
+  </si>
+  <si>
+    <t>6th Feb</t>
+  </si>
+  <si>
+    <t>Scraping Analysis</t>
+  </si>
+  <si>
+    <t>7th Feb</t>
+  </si>
+  <si>
+    <t>Rate City scrape script</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D32"/>
+  <dimension ref="B2:D36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1631,50 @@
         <v>115</v>
       </c>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>Important</t>
   </si>
@@ -399,6 +399,15 @@
   </si>
   <si>
     <t>Rate City scrape script</t>
+  </si>
+  <si>
+    <t>9th Feb</t>
+  </si>
+  <si>
+    <t>SQL script: JSON to csv and Insert statements</t>
+  </si>
+  <si>
+    <t>Data extraction from SQL (shell script)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,10 +434,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,11 +499,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,7 +1171,7 @@
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1160,7 +1179,7 @@
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1198,7 +1217,7 @@
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
@@ -1209,7 +1228,7 @@
       <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1393,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D36"/>
+  <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1405,274 +1424,328 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <v>10</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="12">
         <v>9</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="B29" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
         <v>5</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="11" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="12">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="12">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="12">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="12">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="12" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="10">
+        <v>8</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>Important</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>Data extraction from SQL (shell script)</t>
+  </si>
+  <si>
+    <t>11th Feb</t>
+  </si>
+  <si>
+    <t>SQL table restructuring and Query modifications</t>
+  </si>
+  <si>
+    <t>Feeding data into the website</t>
   </si>
 </sst>
 </file>
@@ -500,12 +509,12 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,7 +1180,7 @@
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1179,7 +1188,7 @@
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1217,7 +1226,7 @@
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
@@ -1228,7 +1237,7 @@
       <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1412,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D38"/>
+  <dimension ref="B2:D40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1424,311 +1433,311 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>10</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>9</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>5</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>8</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>7</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>1</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>8</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1746,6 +1755,22 @@
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D38" s="10" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="10">
+        <v>7</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/homeloans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\Documents\GitHub\homeloans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,23 @@
     <sheet name="Timeline" sheetId="3" r:id="rId3"/>
     <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>Important</t>
   </si>
@@ -345,12 +345,18 @@
   </si>
   <si>
     <t>Dynamic css changes(select/unselect) to features on product and search page</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -746,20 +752,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -771,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -779,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -787,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -795,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -803,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -819,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -827,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -835,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -843,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -851,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -859,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -867,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -875,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -883,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -891,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -899,7 +905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -907,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -915,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
@@ -923,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -937,34 +943,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>58</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -1102,13 +1108,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -1151,13 +1157,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -1165,17 +1171,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>92</v>
       </c>
@@ -1191,24 +1197,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1304,28 +1310,28 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1338,19 +1344,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="63.5" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,8 +1366,11 @@
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1371,18 +1380,21 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>76</v>
       </c>
@@ -1392,8 +1404,11 @@
       <c r="D6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -1403,8 +1418,11 @@
       <c r="D7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>78</v>
       </c>
@@ -1414,18 +1432,21 @@
       <c r="D8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>85</v>
       </c>
@@ -1435,8 +1456,11 @@
       <c r="D11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -1446,18 +1470,21 @@
       <c r="D12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -1467,33 +1494,36 @@
       <c r="D15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D16" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>100</v>
       </c>
@@ -1503,13 +1533,16 @@
       <c r="D21" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="s">
         <v>103</v>
       </c>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Timeline" sheetId="3" r:id="rId3"/>
-    <sheet name="Hours worked" sheetId="2" r:id="rId4"/>
+    <sheet name="Design to dos" sheetId="5" r:id="rId3"/>
+    <sheet name="Timeline" sheetId="3" r:id="rId4"/>
+    <sheet name="Hours worked" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>Important</t>
   </si>
@@ -351,6 +352,33 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>Home page button icons</t>
+  </si>
+  <si>
+    <t>Update icons</t>
+  </si>
+  <si>
+    <t>Logo, icons</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Logo, sections</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1225,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A2878-9D6A-4CE3-BE08-19CB6498544E}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Y7"/>
   <sheetViews>
@@ -1343,11 +1431,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\Documents\GitHub\homeloans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/homeloans/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,23 @@
     <sheet name="Timeline" sheetId="3" r:id="rId4"/>
     <sheet name="Hours worked" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="181">
   <si>
     <t>Important</t>
   </si>
@@ -379,16 +379,214 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Logo idea: door opening</t>
+  </si>
+  <si>
+    <t>whyRefinance</t>
+  </si>
+  <si>
+    <t>Colours after clicking options</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Remove total loan amount and borrowing power column</t>
+  </si>
+  <si>
+    <t>Change view details to "apply now"</t>
+  </si>
+  <si>
+    <t>Remove star column</t>
+  </si>
+  <si>
+    <t>Remove compare loans button</t>
+  </si>
+  <si>
+    <t>Remove right hand panel</t>
+  </si>
+  <si>
+    <t>Update navbar</t>
+  </si>
+  <si>
+    <t>Update font and colours</t>
+  </si>
+  <si>
+    <t>Make dynamic (product name column wider, other columns narrower). Remove columns on smaller screens</t>
+  </si>
+  <si>
+    <t>How it works, 3 icons. Find example</t>
+  </si>
+  <si>
+    <t>Comparison rate!Monthly P&amp;I repayments!Ongoing rate!Ongoing fees! Upfront fees!Apply now</t>
+  </si>
+  <si>
+    <t>Column headers</t>
+  </si>
+  <si>
+    <t>Update logos</t>
+  </si>
+  <si>
+    <t>1) Refi or new purchase 2) Questions required for loan amount and LVR 3) Investment or live 4) Low/nodoc</t>
+  </si>
+  <si>
+    <t>Delete Show all lenders</t>
+  </si>
+  <si>
+    <t>Delete total loan term</t>
+  </si>
+  <si>
+    <t>Add 1st home buyers</t>
+  </si>
+  <si>
+    <t>Instruction manual for MLB application portal</t>
+  </si>
+  <si>
+    <t>add sql for refinance/ repayment freq</t>
+  </si>
+  <si>
+    <t>21st Jan</t>
+  </si>
+  <si>
+    <t>Changes to customer table. Updated primary keys to optimize database.</t>
+  </si>
+  <si>
+    <t>28th Jan</t>
+  </si>
+  <si>
+    <t>Query to compare customer table with loan table and fetch products</t>
+  </si>
+  <si>
+    <t>Query and php script to insert customer details in customer table</t>
+  </si>
+  <si>
+    <t>changes to serach.php page to fetch dynamic records using new query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update customer details script and php page</t>
+  </si>
+  <si>
+    <t>29th Jan</t>
+  </si>
+  <si>
+    <t>Added extra repay constraint to query and script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended javascript for buying new home </t>
+  </si>
+  <si>
+    <t>date converstion code to store in sql (settlement date)</t>
+  </si>
+  <si>
+    <t>bug fixes in update customer details through dropdown menu</t>
+  </si>
+  <si>
+    <t>4th Feb</t>
+  </si>
+  <si>
+    <t>Scraping Analysis</t>
+  </si>
+  <si>
+    <t>5th Feb</t>
+  </si>
+  <si>
+    <t>6th Feb</t>
+  </si>
+  <si>
+    <t>7th Feb</t>
+  </si>
+  <si>
+    <t>Rate City scrape script</t>
+  </si>
+  <si>
+    <t>9th Feb</t>
+  </si>
+  <si>
+    <t>Data extraction from SQL (shell script)</t>
+  </si>
+  <si>
+    <t>SQL script: JSON to csv and Insert statements</t>
+  </si>
+  <si>
+    <t>11th Feb</t>
+  </si>
+  <si>
+    <t>SQL table restructuring and Query modifications</t>
+  </si>
+  <si>
+    <t>Bank Data SQL query dynamic construction</t>
+  </si>
+  <si>
+    <t>Product details SQL Insert Query dynamic construction</t>
+  </si>
+  <si>
+    <t>12th Feb</t>
+  </si>
+  <si>
+    <t>Feeding into Website</t>
+  </si>
+  <si>
+    <t>Bug fixes due to query changes</t>
+  </si>
+  <si>
+    <t>Modification to customer details query according to changes in product table</t>
+  </si>
+  <si>
+    <t>13th Feb</t>
+  </si>
+  <si>
+    <t>Comma separation dynamic</t>
+  </si>
+  <si>
+    <t>Variable/Fixed Rate query and dropdown code</t>
+  </si>
+  <si>
+    <t>14th Feb</t>
+  </si>
+  <si>
+    <t>Principal and Interest/Interest only query and dropdown code</t>
+  </si>
+  <si>
+    <t>Repayment Frequency Query and dropdown code</t>
+  </si>
+  <si>
+    <t>15th Feb</t>
+  </si>
+  <si>
+    <t>Format table/ Product name</t>
+  </si>
+  <si>
+    <t>Change logic to pick from product_id as primary key</t>
+  </si>
+  <si>
+    <t>Calculation for monthly ongoing fee</t>
+  </si>
+  <si>
+    <t>Format View product page</t>
+  </si>
+  <si>
+    <t>17th Feb</t>
+  </si>
+  <si>
+    <t>18th Feb</t>
+  </si>
+  <si>
+    <t>19th Feb</t>
+  </si>
+  <si>
+    <t>LOGO Design - Chaitrali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,10 +603,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -447,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -462,8 +668,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -780,20 +988,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -805,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -813,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -821,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -829,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -837,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -845,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -853,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -861,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -869,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -877,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -885,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -893,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -901,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -909,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -917,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -925,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -933,7 +1141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -941,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -949,7 +1157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
@@ -957,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -971,34 +1179,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1051,7 +1259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1309,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>58</v>
       </c>
@@ -1112,7 +1320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
@@ -1120,7 +1328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1128,21 +1336,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -1150,7 +1358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1158,7 +1366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -1166,7 +1374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -1174,24 +1382,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -1199,17 +1407,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>92</v>
       </c>
@@ -1225,20 +1433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A2878-9D6A-4CE3-BE08-19CB6498544E}">
-  <dimension ref="B2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>107</v>
       </c>
@@ -1246,15 +1454,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>109</v>
       </c>
@@ -1262,7 +1473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -1270,12 +1481,111 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1285,24 +1595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1398,28 +1708,28 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1432,208 +1742,587 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="63.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
+      <c r="C2" s="11">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C6">
+      <c r="C5" s="11">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D5" s="11" t="s">
         <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="11">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="11">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="11">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="11">
+        <v>8</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="11">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="11">
+        <v>8</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="10">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="10">
+        <v>7</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="D59" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D60" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
   <si>
     <t>Important</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>LOGO Design - Chaitrali</t>
+  </si>
+  <si>
+    <t>20th Feb</t>
+  </si>
+  <si>
+    <t>Product page update discharge fee, ongoing fee, css/html changes</t>
+  </si>
+  <si>
+    <t>Sorting results of all columns, Monthly repayment calculations</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +622,22 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -650,8 +675,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -676,7 +703,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1437,7 +1466,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1743,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E66"/>
+  <dimension ref="B1:E67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2322,7 +2351,20 @@
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D66" s="10"/>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="186">
   <si>
     <t>Important</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>Sorting results of all columns, Monthly repayment calculations</t>
+  </si>
+  <si>
+    <t>23rd Feb</t>
+  </si>
+  <si>
+    <t>Header changes, 3 icons, colour changes, buttons/hover</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1472,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1487,10 +1493,10 @@
       <c r="B3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1514,7 +1520,7 @@
       <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1522,7 +1528,7 @@
       <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1772,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E67"/>
+  <dimension ref="B1:E69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2366,6 +2372,28 @@
         <v>182</v>
       </c>
     </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="190">
   <si>
     <t>Important</t>
   </si>
@@ -592,6 +592,18 @@
   </si>
   <si>
     <t>Header changes, 3 icons, colour changes, buttons/hover</t>
+  </si>
+  <si>
+    <t>25th Feb</t>
+  </si>
+  <si>
+    <t>Search page fonts, changing logo, resizing index and search page icons.</t>
+  </si>
+  <si>
+    <t>Mobile views</t>
+  </si>
+  <si>
+    <t>javascript logic (limit max value for loan)</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E69"/>
+  <dimension ref="B1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2394,6 +2406,43 @@
         <v>185</v>
       </c>
     </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
